--- a/REGULAR/FERMA, JOSEFA.xlsx
+++ b/REGULAR/FERMA, JOSEFA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE73EE-6697-41BD-A939-ABCE22461D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="465">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1424,12 +1423,18 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 3/27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2324,7 +2329,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2372,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2436,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2496,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2562,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2625,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2723,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2782,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2847,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2890,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2965,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3151,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3217,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3275,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3341,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3397,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +3472,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3515,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3581,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3637,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3735,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3798,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,38 +3864,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3899,14 +3904,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4210,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4220,7 +4225,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4228,33 +4233,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A548" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B561" sqref="B561"/>
+      <pane ySplit="3570" topLeftCell="A548" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B563" sqref="B563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4275,7 +4280,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4293,7 +4298,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4319,7 +4324,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4332,7 +4337,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4349,7 +4354,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4393,7 +4398,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.184999999999945</v>
+        <v>27.434999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4403,12 +4408,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>164</v>
+        <v>165.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4430,7 +4435,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36342</v>
       </c>
@@ -4454,7 +4459,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36373</v>
@@ -4479,7 +4484,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -4501,7 +4506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -4523,7 +4528,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -4548,7 +4553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>49</v>
@@ -4570,7 +4575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4592,7 +4597,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>36434</v>
@@ -4617,7 +4622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -4639,7 +4644,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4661,7 +4666,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4686,7 +4691,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22" si="0">EDATE(A21,1)</f>
         <v>36495</v>
@@ -4711,7 +4716,7 @@
         <v>36323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4733,7 +4738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -4757,7 +4762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -4777,7 +4782,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -4797,7 +4802,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>62</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36526</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -4861,7 +4866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>65</v>
@@ -4883,7 +4888,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36557</v>
@@ -4908,7 +4913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>67</v>
@@ -4930,7 +4935,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36586</v>
@@ -4955,7 +4960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -4977,7 +4982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -4999,7 +5004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>119</v>
@@ -5019,7 +5024,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -5043,7 +5048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5059,7 +5064,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A33,1)</f>
         <v>36617</v>
@@ -5084,7 +5089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -5106,7 +5111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>75</v>
@@ -5128,7 +5133,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36647</v>
@@ -5153,7 +5158,7 @@
         <v>36743</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -5175,7 +5180,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36678</v>
@@ -5200,7 +5205,7 @@
         <v>36652</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -5222,7 +5227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -5244,7 +5249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -5266,7 +5271,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A44,1)</f>
         <v>36708</v>
@@ -5291,7 +5296,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -5313,7 +5318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -5333,7 +5338,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5355,7 +5360,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36739</v>
@@ -5380,7 +5385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>57</v>
@@ -5402,7 +5407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>84</v>
@@ -5424,7 +5429,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36770</v>
@@ -5449,7 +5454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -5471,7 +5476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -5493,7 +5498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>88</v>
@@ -5513,7 +5518,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A55,1)</f>
         <v>36800</v>
@@ -5538,7 +5543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -5560,7 +5565,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>48</v>
@@ -5582,7 +5587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -5604,7 +5609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -5626,7 +5631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>89</v>
@@ -5646,7 +5651,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65" si="1">EDATE(A59,1)</f>
         <v>36831</v>
@@ -5671,7 +5676,7 @@
         <v>36749</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5693,7 +5698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>45</v>
@@ -5715,7 +5720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>84</v>
@@ -5737,7 +5742,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A65,1)</f>
         <v>36861</v>
@@ -5762,7 +5767,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>49</v>
@@ -5784,7 +5789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>55</v>
@@ -5806,7 +5811,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>99</v>
       </c>
@@ -5824,7 +5829,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36892</v>
       </c>
@@ -5848,7 +5853,7 @@
         <v>36951</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>45</v>
@@ -5870,7 +5875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -5892,7 +5897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>102</v>
@@ -5914,7 +5919,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A73,1)</f>
         <v>36923</v>
@@ -5939,7 +5944,7 @@
         <v>37044</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -5961,7 +5966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>53</v>
@@ -5983,7 +5988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -6005,7 +6010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>107</v>
@@ -6027,7 +6032,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36951</v>
@@ -6052,7 +6057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -6074,7 +6079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -6096,7 +6101,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36982</v>
@@ -6121,7 +6126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -6139,7 +6144,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>37012</v>
@@ -6164,7 +6169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>115</v>
@@ -6186,7 +6191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6205,7 +6210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>119</v>
@@ -6225,7 +6230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>118</v>
@@ -6247,7 +6252,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A87,1)</f>
         <v>37043</v>
@@ -6272,7 +6277,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>57</v>
@@ -6294,7 +6299,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>122</v>
@@ -6316,7 +6321,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37073</v>
@@ -6341,7 +6346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -6360,7 +6365,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>125</v>
@@ -6382,7 +6387,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A95,1)</f>
         <v>37104</v>
@@ -6407,7 +6412,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6429,7 +6434,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>127</v>
@@ -6451,7 +6456,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A98,1)</f>
         <v>37135</v>
@@ -6476,7 +6481,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>128</v>
@@ -6498,7 +6503,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37165</v>
@@ -6523,7 +6528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -6541,7 +6546,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37196</v>
@@ -6562,7 +6567,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" ref="A106" si="2">EDATE(A105,1)</f>
         <v>37226</v>
@@ -6583,7 +6588,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>130</v>
       </c>
@@ -6601,7 +6606,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37257</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6643,7 +6648,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>37288</v>
@@ -6664,7 +6669,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="3">EDATE(A110,1)</f>
         <v>37316</v>
@@ -6689,7 +6694,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>119</v>
@@ -6711,7 +6716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>37347</v>
@@ -6736,7 +6741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>119</v>
@@ -6758,7 +6763,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37377</v>
@@ -6779,7 +6784,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -6804,7 +6809,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -6822,7 +6827,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37438</v>
@@ -6843,7 +6848,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6868,7 +6873,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6886,7 +6891,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6911,7 +6916,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>90</v>
@@ -6933,7 +6938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>138</v>
@@ -6955,7 +6960,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37530</v>
@@ -6976,7 +6981,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -7001,7 +7006,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>140</v>
@@ -7023,7 +7028,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>37591</v>
@@ -7048,7 +7053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>141</v>
@@ -7070,7 +7075,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>142</v>
       </c>
@@ -7088,7 +7093,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37622</v>
       </c>
@@ -7112,7 +7117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>145</v>
@@ -7134,7 +7139,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37653</v>
@@ -7159,7 +7164,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>70</v>
@@ -7181,7 +7186,7 @@
         <v>37743</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>147</v>
@@ -7203,7 +7208,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -7226,7 +7231,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>148</v>
@@ -7248,7 +7253,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -7273,7 +7278,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A145" si="4">EDATE(A137,1)</f>
         <v>37742</v>
@@ -7298,7 +7303,7 @@
         <v>37838</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>119</v>
@@ -7318,7 +7323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7336,7 +7341,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7357,7 +7362,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -7382,7 +7387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -7400,7 +7405,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37834</v>
@@ -7421,7 +7426,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -7446,7 +7451,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>154</v>
@@ -7468,7 +7473,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -7493,7 +7498,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>155</v>
@@ -7515,7 +7520,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7540,7 +7545,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>157</v>
@@ -7562,7 +7567,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37956</v>
@@ -7587,7 +7592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -7609,7 +7614,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>159</v>
       </c>
@@ -7627,7 +7632,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37987</v>
       </c>
@@ -7651,7 +7656,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>147</v>
@@ -7673,7 +7678,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38018</v>
@@ -7696,7 +7701,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>162</v>
@@ -7718,7 +7723,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A156,1)</f>
         <v>38047</v>
@@ -7743,7 +7748,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>53</v>
@@ -7765,7 +7770,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>163</v>
@@ -7787,7 +7792,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7812,7 +7817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>119</v>
@@ -7832,7 +7837,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>165</v>
@@ -7854,7 +7859,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>38108</v>
@@ -7879,7 +7884,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A175" si="5">EDATE(A164,1)</f>
         <v>38139</v>
@@ -7904,7 +7909,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7929,7 +7934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -7951,7 +7956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>171</v>
@@ -7973,7 +7978,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A166,1)</f>
         <v>38200</v>
@@ -7998,7 +8003,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A169,1)</f>
         <v>38231</v>
@@ -8021,7 +8026,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>173</v>
@@ -8043,7 +8048,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38261</v>
@@ -8068,7 +8073,7 @@
         <v>38331</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>174</v>
@@ -8090,7 +8095,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>38292</v>
@@ -8115,7 +8120,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="5"/>
         <v>38322</v>
@@ -8140,7 +8145,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>177</v>
       </c>
@@ -8158,7 +8163,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38353</v>
       </c>
@@ -8182,7 +8187,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>45</v>
@@ -8204,7 +8209,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>179</v>
@@ -8226,7 +8231,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -8251,7 +8256,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A200" si="6">EDATE(A180,1)</f>
         <v>38412</v>
@@ -8274,7 +8279,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>182</v>
@@ -8296,7 +8301,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38443</v>
@@ -8321,7 +8326,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>184</v>
@@ -8343,7 +8348,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38473</v>
@@ -8368,7 +8373,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>187</v>
@@ -8388,7 +8393,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -8410,7 +8415,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A185,1)</f>
         <v>38504</v>
@@ -8435,7 +8440,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>145</v>
@@ -8457,7 +8462,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>38534</v>
@@ -8482,7 +8487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>191</v>
@@ -8502,7 +8507,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>193</v>
@@ -8524,7 +8529,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38565</v>
@@ -8549,7 +8554,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -8574,7 +8579,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>108</v>
@@ -8596,7 +8601,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>196</v>
@@ -8618,7 +8623,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A194,1)</f>
         <v>38626</v>
@@ -8643,7 +8648,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>199</v>
@@ -8665,7 +8670,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f>EDATE(A197,1)</f>
         <v>38657</v>
@@ -8690,7 +8695,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="6"/>
         <v>38687</v>
@@ -8715,7 +8720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>201</v>
@@ -8737,7 +8742,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>202</v>
       </c>
@@ -8755,7 +8760,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -8779,7 +8784,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>38749</v>
@@ -8802,7 +8807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>45</v>
@@ -8824,7 +8829,7 @@
         <v>38720</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>205</v>
@@ -8846,7 +8851,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38777</v>
@@ -8869,7 +8874,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>207</v>
@@ -8891,7 +8896,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38808</v>
@@ -8912,7 +8917,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>208</v>
@@ -8934,7 +8939,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>210</v>
@@ -8954,7 +8959,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A209,1)</f>
         <v>38838</v>
@@ -8979,7 +8984,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" ref="A213:A221" si="7">EDATE(A212,1)</f>
         <v>38869</v>
@@ -9004,7 +9009,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -9029,7 +9034,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -9054,7 +9059,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -9079,7 +9084,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>208</v>
@@ -9101,7 +9106,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>216</v>
@@ -9123,7 +9128,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A216,1)</f>
         <v>38991</v>
@@ -9148,7 +9153,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -9173,7 +9178,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -9198,7 +9203,7 @@
         <v>39063</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>218</v>
@@ -9220,7 +9225,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="47" t="s">
         <v>219</v>
       </c>
@@ -9238,7 +9243,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39083</v>
       </c>
@@ -9262,7 +9267,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>221</v>
@@ -9284,7 +9289,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39114</v>
@@ -9309,7 +9314,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" ref="A227:A242" si="8">EDATE(A226,1)</f>
         <v>39142</v>
@@ -9332,7 +9337,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>224</v>
@@ -9354,7 +9359,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39173</v>
@@ -9379,7 +9384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>119</v>
@@ -9399,7 +9404,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>227</v>
@@ -9421,7 +9426,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A229,1)</f>
         <v>39203</v>
@@ -9446,7 +9451,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -9471,7 +9476,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>230</v>
@@ -9493,7 +9498,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39264</v>
@@ -9518,7 +9523,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>231</v>
@@ -9540,7 +9545,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>39295</v>
@@ -9565,7 +9570,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>232</v>
@@ -9587,7 +9592,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39326</v>
@@ -9612,7 +9617,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>235</v>
@@ -9634,7 +9639,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39356</v>
@@ -9659,7 +9664,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -9684,7 +9689,7 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>108</v>
@@ -9706,7 +9711,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>238</v>
@@ -9728,7 +9733,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>39417</v>
@@ -9751,7 +9756,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>239</v>
@@ -9773,7 +9778,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>240</v>
       </c>
@@ -9791,7 +9796,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39448</v>
       </c>
@@ -9815,7 +9820,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>241</v>
@@ -9837,7 +9842,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39479</v>
@@ -9862,7 +9867,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>244</v>
@@ -9884,7 +9889,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39508</v>
@@ -9907,7 +9912,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>208</v>
@@ -9929,7 +9934,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>246</v>
@@ -9951,7 +9956,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A252,1)</f>
         <v>39539</v>
@@ -9976,7 +9981,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>247</v>
@@ -9996,7 +10001,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39569</v>
@@ -10021,7 +10026,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>39600</v>
@@ -10046,7 +10051,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>251</v>
@@ -10068,7 +10073,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39630</v>
@@ -10093,7 +10098,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" ref="A261:A264" si="9">EDATE(A260,1)</f>
         <v>39661</v>
@@ -10118,7 +10123,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -10143,7 +10148,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="9"/>
         <v>39722</v>
@@ -10168,7 +10173,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -10193,7 +10198,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>256</v>
@@ -10215,7 +10220,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>39783</v>
@@ -10238,7 +10243,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -10260,7 +10265,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="47" t="s">
         <v>257</v>
       </c>
@@ -10278,7 +10283,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39814</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>258</v>
@@ -10324,7 +10329,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>39845</v>
@@ -10349,7 +10354,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>260</v>
@@ -10371,7 +10376,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>119</v>
@@ -10391,7 +10396,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A271,1)</f>
         <v>39873</v>
@@ -10414,7 +10419,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>262</v>
@@ -10436,7 +10441,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39904</v>
@@ -10461,7 +10466,7 @@
         <v>40029</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>264</v>
@@ -10483,7 +10488,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A276,1)</f>
         <v>39934</v>
@@ -10508,7 +10513,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A292" si="10">EDATE(A278,1)</f>
         <v>39965</v>
@@ -10533,7 +10538,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>187</v>
@@ -10553,7 +10558,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>268</v>
@@ -10575,7 +10580,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39995</v>
@@ -10600,7 +10605,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>108</v>
@@ -10622,7 +10627,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -10644,7 +10649,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>271</v>
@@ -10666,7 +10671,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>40026</v>
@@ -10691,7 +10696,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -10716,7 +10721,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>273</v>
@@ -10738,7 +10743,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40087</v>
@@ -10763,7 +10768,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>275</v>
@@ -10785,7 +10790,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>40118</v>
@@ -10810,7 +10815,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -10837,7 +10842,7 @@
         <v>39976</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>277</v>
@@ -10857,7 +10862,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>278</v>
       </c>
@@ -10875,7 +10880,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40179</v>
       </c>
@@ -10899,7 +10904,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A295,1)</f>
         <v>40210</v>
@@ -10924,7 +10929,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>281</v>
@@ -10946,7 +10951,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40238</v>
@@ -10971,7 +10976,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10993,7 +10998,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>284</v>
@@ -11015,7 +11020,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40269</v>
@@ -11040,7 +11045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -11062,7 +11067,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>286</v>
@@ -11084,7 +11089,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40299</v>
@@ -11109,7 +11114,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>289</v>
@@ -11131,7 +11136,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40330</v>
@@ -11156,7 +11161,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A312" si="11">EDATE(A306,1)</f>
         <v>40360</v>
@@ -11181,7 +11186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>293</v>
@@ -11203,7 +11208,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40391</v>
@@ -11228,7 +11233,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>246</v>
@@ -11250,7 +11255,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40422</v>
@@ -11275,7 +11280,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="11"/>
         <v>40452</v>
@@ -11300,7 +11305,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>297</v>
@@ -11322,7 +11327,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11347,7 +11352,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>299</v>
@@ -11369,7 +11374,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="52"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40513</v>
@@ -11394,7 +11399,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="47" t="s">
         <v>301</v>
       </c>
@@ -11412,7 +11417,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40544</v>
       </c>
@@ -11436,7 +11441,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>303</v>
@@ -11458,7 +11463,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -11483,7 +11488,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>305</v>
@@ -11505,7 +11510,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40603</v>
@@ -11528,7 +11533,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>307</v>
@@ -11550,7 +11555,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40634</v>
@@ -11575,7 +11580,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A335" si="12">EDATE(A324,1)</f>
         <v>40664</v>
@@ -11600,7 +11605,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>310</v>
@@ -11622,7 +11627,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>40695</v>
@@ -11647,7 +11652,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -11672,7 +11677,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -11697,7 +11702,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>79</v>
@@ -11719,7 +11724,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40787</v>
@@ -11744,7 +11749,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>315</v>
@@ -11766,7 +11771,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>40817</v>
@@ -11791,7 +11796,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="12"/>
         <v>40848</v>
@@ -11816,7 +11821,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="12"/>
         <v>40878</v>
@@ -11841,7 +11846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>319</v>
@@ -11863,7 +11868,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="47" t="s">
         <v>320</v>
       </c>
@@ -11881,7 +11886,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40909</v>
       </c>
@@ -11905,7 +11910,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>40940</v>
@@ -11928,7 +11933,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>323</v>
@@ -11950,7 +11955,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40969</v>
@@ -11975,7 +11980,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A355" si="13">EDATE(A341,1)</f>
         <v>41000</v>
@@ -12000,7 +12005,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="13"/>
         <v>41030</v>
@@ -12021,7 +12026,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12047,7 +12052,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -12070,7 +12075,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>212</v>
@@ -12092,7 +12097,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A345,1)</f>
         <v>41091</v>
@@ -12117,7 +12122,7 @@
       <c r="J347" s="12"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="13"/>
         <v>41122</v>
@@ -12142,7 +12147,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -12167,7 +12172,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>242</v>
@@ -12189,7 +12194,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>332</v>
@@ -12211,7 +12216,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>41183</v>
@@ -12234,7 +12239,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>334</v>
@@ -12256,7 +12261,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41214</v>
@@ -12281,7 +12286,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="13"/>
         <v>41244</v>
@@ -12306,7 +12311,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>336</v>
@@ -12328,7 +12333,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="47" t="s">
         <v>337</v>
       </c>
@@ -12346,7 +12351,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>41275</v>
       </c>
@@ -12370,7 +12375,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -12392,7 +12397,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>339</v>
@@ -12414,7 +12419,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>41306</v>
@@ -12439,7 +12444,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>242</v>
@@ -12461,7 +12466,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>321</v>
@@ -12483,7 +12488,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f>EDATE(A361,1)</f>
         <v>41334</v>
@@ -12506,7 +12511,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>157</v>
@@ -12528,7 +12533,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41365</v>
@@ -12553,7 +12558,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>45</v>
@@ -12575,7 +12580,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>344</v>
@@ -12597,7 +12602,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>41395</v>
@@ -12622,7 +12627,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A369,1)</f>
         <v>41426</v>
@@ -12647,7 +12652,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>345</v>
@@ -12667,7 +12672,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>41456</v>
@@ -12690,7 +12695,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>349</v>
@@ -12712,7 +12717,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>351</v>
@@ -12734,7 +12739,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A372,1)</f>
         <v>41487</v>
@@ -12759,7 +12764,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>352</v>
@@ -12781,7 +12786,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41518</v>
@@ -12806,7 +12811,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>355</v>
@@ -12828,7 +12833,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>41548</v>
@@ -12853,7 +12858,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>357</v>
@@ -12875,7 +12880,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41579</v>
@@ -12900,7 +12905,7 @@
         <v>41436</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>358</v>
@@ -12922,7 +12927,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" ref="A383" si="14">EDATE(A381,1)</f>
         <v>41609</v>
@@ -12947,7 +12952,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="47" t="s">
         <v>360</v>
       </c>
@@ -12965,7 +12970,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41640</v>
       </c>
@@ -12989,7 +12994,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>157</v>
@@ -13011,7 +13016,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>41671</v>
@@ -13036,7 +13041,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>45</v>
@@ -13058,7 +13063,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>361</v>
@@ -13080,7 +13085,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A387,1)</f>
         <v>41699</v>
@@ -13105,7 +13110,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>108</v>
@@ -13127,7 +13132,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>365</v>
@@ -13149,7 +13154,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>41730</v>
@@ -13174,7 +13179,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" ref="A394:A405" si="15">EDATE(A393,1)</f>
         <v>41760</v>
@@ -13199,7 +13204,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -13221,7 +13226,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>369</v>
@@ -13243,7 +13248,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A394,1)</f>
         <v>41791</v>
@@ -13268,7 +13273,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>370</v>
@@ -13290,7 +13295,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A397,1)</f>
         <v>41821</v>
@@ -13315,7 +13320,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>372</v>
@@ -13337,7 +13342,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>41852</v>
@@ -13362,7 +13367,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -13387,7 +13392,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>303</v>
@@ -13409,7 +13414,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41913</v>
@@ -13434,7 +13439,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -13457,7 +13462,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>208</v>
@@ -13479,7 +13484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>379</v>
@@ -13501,7 +13506,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41974</v>
@@ -13526,7 +13531,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="47" t="s">
         <v>381</v>
       </c>
@@ -13544,7 +13549,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42005</v>
       </c>
@@ -13568,7 +13573,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>42036</v>
@@ -13593,7 +13598,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A431" si="16">EDATE(A411,1)</f>
         <v>42064</v>
@@ -13616,7 +13621,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>384</v>
@@ -13638,7 +13643,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>42095</v>
@@ -13663,7 +13668,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>387</v>
@@ -13685,7 +13690,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>42125</v>
@@ -13710,7 +13715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -13730,7 +13735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>171</v>
@@ -13752,7 +13757,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A416,1)</f>
         <v>42156</v>
@@ -13775,7 +13780,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>391</v>
@@ -13797,7 +13802,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>42186</v>
@@ -13822,7 +13827,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>393</v>
@@ -13844,7 +13849,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>42217</v>
@@ -13869,7 +13874,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>141</v>
@@ -13891,7 +13896,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42248</v>
@@ -13916,7 +13921,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13938,7 +13943,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>45</v>
@@ -13960,7 +13965,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>395</v>
@@ -13982,7 +13987,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>42278</v>
@@ -14007,7 +14012,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -14032,7 +14037,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -14057,7 +14062,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>171</v>
@@ -14079,7 +14084,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="47" t="s">
         <v>399</v>
       </c>
@@ -14097,7 +14102,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42370</v>
       </c>
@@ -14121,7 +14126,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A434,1)</f>
         <v>42401</v>
@@ -14146,7 +14151,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>401</v>
@@ -14168,7 +14173,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>42430</v>
@@ -14193,7 +14198,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>402</v>
@@ -14215,7 +14220,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>42461</v>
@@ -14240,7 +14245,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>242</v>
@@ -14262,7 +14267,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>403</v>
@@ -14284,7 +14289,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>42491</v>
@@ -14309,7 +14314,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" ref="A443:A450" si="17">EDATE(A442,1)</f>
         <v>42522</v>
@@ -14334,7 +14339,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -14359,7 +14364,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -14384,7 +14389,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -14409,7 +14414,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>45</v>
@@ -14431,7 +14436,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>411</v>
@@ -14453,7 +14458,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A446,1)</f>
         <v>42644</v>
@@ -14478,7 +14483,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -14503,7 +14508,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>108</v>
@@ -14525,7 +14530,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>351</v>
@@ -14547,7 +14552,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>42705</v>
@@ -14572,7 +14577,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="15"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
         <v>417</v>
       </c>
@@ -14590,7 +14595,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42736</v>
       </c>
@@ -14614,7 +14619,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A455,1)</f>
         <v>42767</v>
@@ -14637,7 +14642,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>418</v>
@@ -14659,7 +14664,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42795</v>
@@ -14684,7 +14689,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A471" si="18">EDATE(A458,1)</f>
         <v>42826</v>
@@ -14709,7 +14714,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -14734,7 +14739,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>108</v>
@@ -14756,7 +14761,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>423</v>
@@ -14778,7 +14783,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>42887</v>
@@ -14803,7 +14808,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>45</v>
@@ -14825,7 +14830,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>425</v>
@@ -14847,7 +14852,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42917</v>
@@ -14872,7 +14877,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -14897,7 +14902,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>427</v>
@@ -14919,7 +14924,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>42979</v>
@@ -14944,7 +14949,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -14969,7 +14974,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -14994,7 +14999,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13">
@@ -15012,7 +15017,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>43070</v>
@@ -15033,7 +15038,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="47" t="s">
         <v>432</v>
       </c>
@@ -15051,7 +15056,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -15071,7 +15076,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A475,1)</f>
         <v>43132</v>
@@ -15092,7 +15097,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A490" si="19">EDATE(A476,1)</f>
         <v>43160</v>
@@ -15115,7 +15120,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -15133,7 +15138,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43191</v>
@@ -15154,7 +15159,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -15179,7 +15184,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13">
@@ -15197,7 +15202,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>43252</v>
@@ -15218,7 +15223,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="19"/>
         <v>43282</v>
@@ -15243,7 +15248,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -15261,7 +15266,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A483,1)</f>
         <v>43313</v>
@@ -15282,7 +15287,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="19"/>
         <v>43344</v>
@@ -15307,7 +15312,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13">
@@ -15325,7 +15330,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>43374</v>
@@ -15346,7 +15351,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>43405</v>
@@ -15367,7 +15372,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>43435</v>
@@ -15392,7 +15397,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13">
@@ -15410,7 +15415,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="47" t="s">
         <v>438</v>
       </c>
@@ -15428,7 +15433,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43466</v>
       </c>
@@ -15448,7 +15453,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>43497</v>
@@ -15469,7 +15474,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" ref="A495:A509" si="20">EDATE(A494,1)</f>
         <v>43525</v>
@@ -15494,7 +15499,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>119</v>
@@ -15514,7 +15519,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15536,7 +15541,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -15554,7 +15559,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A495,1)</f>
         <v>43556</v>
@@ -15575,7 +15580,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="20"/>
         <v>43586</v>
@@ -15596,7 +15601,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="20"/>
         <v>43617</v>
@@ -15617,7 +15622,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="20"/>
         <v>43647</v>
@@ -15642,7 +15647,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13">
@@ -15660,7 +15665,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>43678</v>
@@ -15681,7 +15686,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -15706,7 +15711,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -15724,7 +15729,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>43739</v>
@@ -15745,7 +15750,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -15766,7 +15771,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" si="20"/>
         <v>43800</v>
@@ -15787,7 +15792,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="47" t="s">
         <v>443</v>
       </c>
@@ -15805,7 +15810,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43831</v>
       </c>
@@ -15825,7 +15830,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>43862</v>
@@ -15848,7 +15853,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13">
@@ -15866,7 +15871,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43891</v>
@@ -15889,7 +15894,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15907,7 +15912,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A514,1)</f>
         <v>43922</v>
@@ -15928,7 +15933,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" ref="A517:A526" si="21">EDATE(A516,1)</f>
         <v>43952</v>
@@ -15949,7 +15954,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -15970,7 +15975,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <f t="shared" si="21"/>
         <v>44013</v>
@@ -15995,7 +16000,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -16013,7 +16018,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A519,1)</f>
         <v>44044</v>
@@ -16034,7 +16039,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -16055,7 +16060,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f>EDATE(A522,1)</f>
         <v>44105</v>
@@ -16080,7 +16085,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -16098,7 +16103,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A523,1)</f>
         <v>44136</v>
@@ -16119,7 +16124,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="21"/>
         <v>44166</v>
@@ -16144,7 +16149,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="47" t="s">
         <v>450</v>
       </c>
@@ -16162,7 +16167,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44197</v>
       </c>
@@ -16182,7 +16187,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A528,1)</f>
         <v>44228</v>
@@ -16207,7 +16212,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -16225,7 +16230,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>44256</v>
@@ -16246,7 +16251,7 @@
       <c r="J531" s="12"/>
       <c r="K531" s="15"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A540" si="22">EDATE(A531,1)</f>
         <v>44287</v>
@@ -16267,7 +16272,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -16288,7 +16293,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -16309,7 +16314,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -16334,7 +16339,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13">
@@ -16352,7 +16357,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>44409</v>
@@ -16373,7 +16378,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -16394,7 +16399,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -16415,7 +16420,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="22"/>
         <v>44501</v>
@@ -16440,7 +16445,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13">
@@ -16458,7 +16463,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A540,1)</f>
         <v>44531</v>
@@ -16479,7 +16484,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="47" t="s">
         <v>454</v>
       </c>
@@ -16497,7 +16502,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44562</v>
       </c>
@@ -16523,7 +16528,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A544,1)</f>
         <v>44593</v>
@@ -16544,7 +16549,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" ref="A546" si="23">EDATE(A545,1)</f>
         <v>44621</v>
@@ -16567,7 +16572,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>108</v>
@@ -16587,7 +16592,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -16605,7 +16610,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f>EDATE(A546,1)</f>
         <v>44652</v>
@@ -16628,7 +16633,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>45</v>
@@ -16652,7 +16657,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -16672,7 +16677,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44713</v>
       </c>
@@ -16692,7 +16697,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44743</v>
       </c>
@@ -16712,7 +16717,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44774</v>
       </c>
@@ -16732,7 +16737,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44805</v>
       </c>
@@ -16758,7 +16763,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44835</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44866</v>
       </c>
@@ -16804,7 +16809,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44896</v>
       </c>
@@ -16828,7 +16833,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="47" t="s">
         <v>458</v>
       </c>
@@ -16846,7 +16851,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44927</v>
       </c>
@@ -16866,7 +16871,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44958</v>
       </c>
@@ -16892,25 +16897,31 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44986</v>
       </c>
-      <c r="B562" s="20"/>
-      <c r="C562" s="13"/>
+      <c r="B562" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K562" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45017</v>
       </c>
@@ -16928,7 +16939,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
@@ -16946,7 +16957,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45078</v>
       </c>
@@ -16964,7 +16975,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45108</v>
       </c>
@@ -16982,7 +16993,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45139</v>
       </c>
@@ -17000,7 +17011,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45170</v>
       </c>
@@ -17018,7 +17029,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45200</v>
       </c>
@@ -17036,7 +17047,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45231</v>
       </c>
@@ -17054,7 +17065,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45261</v>
       </c>
@@ -17072,7 +17083,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45292</v>
       </c>
@@ -17090,7 +17101,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45323</v>
       </c>
@@ -17108,7 +17119,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45352</v>
       </c>
@@ -17126,7 +17137,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45383</v>
       </c>
@@ -17144,7 +17155,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45413</v>
       </c>
@@ -17177,10 +17188,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17203,7 +17214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17211,21 +17222,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -17238,7 +17249,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17293,17 +17304,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17324,7 +17335,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17351,7 +17362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17377,7 +17388,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17403,7 +17414,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17429,7 +17440,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17455,7 +17466,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17481,7 +17492,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17507,7 +17518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17533,7 +17544,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17553,7 +17564,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17573,7 +17584,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17593,7 +17604,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17614,7 +17625,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17635,7 +17646,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17656,7 +17667,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17677,7 +17688,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17698,7 +17709,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17719,7 +17730,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17740,7 +17751,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17761,7 +17772,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17782,7 +17793,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17803,7 +17814,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17824,7 +17835,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17866,7 +17877,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17887,7 +17898,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17908,7 +17919,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17929,7 +17940,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17950,7 +17961,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17971,7 +17982,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17992,7 +18003,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18013,7 +18024,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18022,7 +18033,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18031,7 +18042,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18040,7 +18051,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18049,7 +18060,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18058,7 +18069,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18067,7 +18078,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18076,7 +18087,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18085,7 +18096,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18094,7 +18105,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18103,7 +18114,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18112,7 +18123,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18121,7 +18132,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18130,7 +18141,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18139,7 +18150,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18148,7 +18159,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18157,7 +18168,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18166,7 +18177,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18175,7 +18186,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18184,7 +18195,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18193,7 +18204,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18202,7 +18213,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18211,7 +18222,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18220,7 +18231,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18229,7 +18240,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18238,7 +18249,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18247,7 +18258,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18256,7 +18267,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18265,7 +18276,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18274,7 +18285,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/FERMA, JOSEFA.xlsx
+++ b/REGULAR/FERMA, JOSEFA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AC4F7-9E47-485D-B11C-2A0181494AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="469">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1429,12 +1430,24 @@
   </si>
   <si>
     <t>BDAY 3/27/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>ADMIN OFFICE</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2329,7 +2342,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2385,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2449,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2509,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2575,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2638,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2736,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2795,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2860,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2903,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2978,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3164,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3230,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3288,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3354,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3410,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3485,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,7 +3528,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3594,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3650,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3748,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3811,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3864,38 +3877,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3904,14 +3917,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4215,7 +4228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4225,7 +4238,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4233,33 +4246,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A548" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A476"/>
+      <selection activeCell="E6" sqref="E6"/>
       <selection pane="bottomLeft" activeCell="B563" sqref="B563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4280,7 +4294,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4298,16 +4312,20 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>466</v>
+      </c>
       <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -4316,7 +4334,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4324,7 +4342,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4337,7 +4355,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4354,7 +4372,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4413,7 +4431,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4435,7 +4453,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36342</v>
       </c>
@@ -4459,7 +4477,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36373</v>
@@ -4484,7 +4502,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -4506,7 +4524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -4528,7 +4546,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -4553,7 +4571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>49</v>
@@ -4575,7 +4593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4597,7 +4615,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>36434</v>
@@ -4622,7 +4640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -4644,7 +4662,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4666,7 +4684,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4691,7 +4709,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" ref="A22" si="0">EDATE(A21,1)</f>
         <v>36495</v>
@@ -4716,7 +4734,7 @@
         <v>36323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4738,7 +4756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -4762,7 +4780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -4782,7 +4800,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -4802,7 +4820,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>62</v>
       </c>
@@ -4820,7 +4838,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36526</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -4866,7 +4884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>65</v>
@@ -4888,7 +4906,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36557</v>
@@ -4913,7 +4931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>67</v>
@@ -4935,7 +4953,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36586</v>
@@ -4960,7 +4978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -4982,7 +5000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -5004,7 +5022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>119</v>
@@ -5024,7 +5042,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -5048,7 +5066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5064,7 +5082,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A33,1)</f>
         <v>36617</v>
@@ -5089,7 +5107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -5111,7 +5129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>75</v>
@@ -5133,7 +5151,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36647</v>
@@ -5158,7 +5176,7 @@
         <v>36743</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -5180,7 +5198,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36678</v>
@@ -5205,7 +5223,7 @@
         <v>36652</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -5227,7 +5245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -5249,7 +5267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -5271,7 +5289,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A44,1)</f>
         <v>36708</v>
@@ -5296,7 +5314,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -5318,7 +5336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -5338,7 +5356,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5360,7 +5378,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36739</v>
@@ -5385,7 +5403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>57</v>
@@ -5407,7 +5425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>84</v>
@@ -5429,7 +5447,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36770</v>
@@ -5454,7 +5472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -5476,7 +5494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -5498,7 +5516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>88</v>
@@ -5518,7 +5536,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A55,1)</f>
         <v>36800</v>
@@ -5543,7 +5561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -5565,7 +5583,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>48</v>
@@ -5587,7 +5605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -5609,7 +5627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -5631,7 +5649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>89</v>
@@ -5651,7 +5669,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65" si="1">EDATE(A59,1)</f>
         <v>36831</v>
@@ -5676,7 +5694,7 @@
         <v>36749</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5698,7 +5716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>45</v>
@@ -5720,7 +5738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>84</v>
@@ -5742,7 +5760,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A65,1)</f>
         <v>36861</v>
@@ -5767,7 +5785,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>49</v>
@@ -5789,7 +5807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>55</v>
@@ -5811,7 +5829,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>99</v>
       </c>
@@ -5829,7 +5847,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36892</v>
       </c>
@@ -5853,7 +5871,7 @@
         <v>36951</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>45</v>
@@ -5875,7 +5893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -5897,7 +5915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>102</v>
@@ -5919,7 +5937,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A73,1)</f>
         <v>36923</v>
@@ -5944,7 +5962,7 @@
         <v>37044</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -5966,7 +5984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>53</v>
@@ -5988,7 +6006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -6010,7 +6028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>107</v>
@@ -6032,7 +6050,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36951</v>
@@ -6057,7 +6075,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -6079,7 +6097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -6101,7 +6119,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36982</v>
@@ -6126,7 +6144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -6144,7 +6162,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>37012</v>
@@ -6169,7 +6187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>115</v>
@@ -6191,7 +6209,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6210,7 +6228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>119</v>
@@ -6230,7 +6248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>118</v>
@@ -6252,7 +6270,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A87,1)</f>
         <v>37043</v>
@@ -6277,7 +6295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>57</v>
@@ -6299,7 +6317,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>122</v>
@@ -6321,7 +6339,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37073</v>
@@ -6346,7 +6364,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -6365,7 +6383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>125</v>
@@ -6387,7 +6405,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f>EDATE(A95,1)</f>
         <v>37104</v>
@@ -6412,7 +6430,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6434,7 +6452,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>127</v>
@@ -6456,7 +6474,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A98,1)</f>
         <v>37135</v>
@@ -6481,7 +6499,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>128</v>
@@ -6503,7 +6521,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37165</v>
@@ -6528,7 +6546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -6546,7 +6564,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37196</v>
@@ -6567,7 +6585,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" ref="A106" si="2">EDATE(A105,1)</f>
         <v>37226</v>
@@ -6588,7 +6606,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
         <v>130</v>
       </c>
@@ -6606,7 +6624,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37257</v>
       </c>
@@ -6630,7 +6648,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6648,7 +6666,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>37288</v>
@@ -6669,7 +6687,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="3">EDATE(A110,1)</f>
         <v>37316</v>
@@ -6694,7 +6712,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>119</v>
@@ -6716,7 +6734,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>37347</v>
@@ -6741,7 +6759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>119</v>
@@ -6763,7 +6781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37377</v>
@@ -6784,7 +6802,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -6809,7 +6827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -6827,7 +6845,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37438</v>
@@ -6848,7 +6866,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6873,7 +6891,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6891,7 +6909,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6916,7 +6934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>90</v>
@@ -6938,7 +6956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>138</v>
@@ -6960,7 +6978,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37530</v>
@@ -6981,7 +6999,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -7006,7 +7024,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>140</v>
@@ -7028,7 +7046,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>37591</v>
@@ -7053,7 +7071,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>141</v>
@@ -7075,7 +7093,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>142</v>
       </c>
@@ -7093,7 +7111,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>37622</v>
       </c>
@@ -7117,7 +7135,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>145</v>
@@ -7139,7 +7157,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37653</v>
@@ -7164,7 +7182,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>70</v>
@@ -7186,7 +7204,7 @@
         <v>37743</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>147</v>
@@ -7208,7 +7226,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -7231,7 +7249,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>148</v>
@@ -7253,7 +7271,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -7278,7 +7296,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A145" si="4">EDATE(A137,1)</f>
         <v>37742</v>
@@ -7303,7 +7321,7 @@
         <v>37838</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>119</v>
@@ -7323,7 +7341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7341,7 +7359,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7362,7 +7380,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -7387,7 +7405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -7405,7 +7423,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37834</v>
@@ -7426,7 +7444,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -7451,7 +7469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>154</v>
@@ -7473,7 +7491,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -7498,7 +7516,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>155</v>
@@ -7520,7 +7538,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7545,7 +7563,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>157</v>
@@ -7567,7 +7585,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37956</v>
@@ -7592,7 +7610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -7614,7 +7632,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>159</v>
       </c>
@@ -7632,7 +7650,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37987</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>147</v>
@@ -7678,7 +7696,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38018</v>
@@ -7701,7 +7719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>162</v>
@@ -7723,7 +7741,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A156,1)</f>
         <v>38047</v>
@@ -7748,7 +7766,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>53</v>
@@ -7770,7 +7788,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>163</v>
@@ -7792,7 +7810,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7817,7 +7835,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>119</v>
@@ -7837,7 +7855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>165</v>
@@ -7859,7 +7877,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>38108</v>
@@ -7884,7 +7902,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A175" si="5">EDATE(A164,1)</f>
         <v>38139</v>
@@ -7909,7 +7927,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7934,7 +7952,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -7956,7 +7974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>171</v>
@@ -7978,7 +7996,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f>EDATE(A166,1)</f>
         <v>38200</v>
@@ -8003,7 +8021,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A169,1)</f>
         <v>38231</v>
@@ -8026,7 +8044,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>173</v>
@@ -8048,7 +8066,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38261</v>
@@ -8073,7 +8091,7 @@
         <v>38331</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>174</v>
@@ -8095,7 +8113,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>38292</v>
@@ -8120,7 +8138,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="5"/>
         <v>38322</v>
@@ -8145,7 +8163,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="47" t="s">
         <v>177</v>
       </c>
@@ -8163,7 +8181,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38353</v>
       </c>
@@ -8187,7 +8205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>45</v>
@@ -8209,7 +8227,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>179</v>
@@ -8231,7 +8249,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -8256,7 +8274,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A200" si="6">EDATE(A180,1)</f>
         <v>38412</v>
@@ -8279,7 +8297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>182</v>
@@ -8301,7 +8319,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38443</v>
@@ -8326,7 +8344,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>184</v>
@@ -8348,7 +8366,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38473</v>
@@ -8373,7 +8391,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>187</v>
@@ -8393,7 +8411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -8415,7 +8433,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A185,1)</f>
         <v>38504</v>
@@ -8440,7 +8458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>145</v>
@@ -8462,7 +8480,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>38534</v>
@@ -8487,7 +8505,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>191</v>
@@ -8507,7 +8525,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>193</v>
@@ -8529,7 +8547,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38565</v>
@@ -8554,7 +8572,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -8579,7 +8597,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>108</v>
@@ -8601,7 +8619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>196</v>
@@ -8623,7 +8641,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A194,1)</f>
         <v>38626</v>
@@ -8648,7 +8666,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>199</v>
@@ -8670,7 +8688,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f>EDATE(A197,1)</f>
         <v>38657</v>
@@ -8695,7 +8713,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="6"/>
         <v>38687</v>
@@ -8720,7 +8738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>201</v>
@@ -8742,7 +8760,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>202</v>
       </c>
@@ -8760,7 +8778,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -8784,7 +8802,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>38749</v>
@@ -8807,7 +8825,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>45</v>
@@ -8829,7 +8847,7 @@
         <v>38720</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>205</v>
@@ -8851,7 +8869,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38777</v>
@@ -8874,7 +8892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>207</v>
@@ -8896,7 +8914,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38808</v>
@@ -8917,7 +8935,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>208</v>
@@ -8939,7 +8957,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>210</v>
@@ -8959,7 +8977,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A209,1)</f>
         <v>38838</v>
@@ -8984,7 +9002,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" ref="A213:A221" si="7">EDATE(A212,1)</f>
         <v>38869</v>
@@ -9009,7 +9027,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -9034,7 +9052,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -9059,7 +9077,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -9084,7 +9102,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>208</v>
@@ -9106,7 +9124,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>216</v>
@@ -9128,7 +9146,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A216,1)</f>
         <v>38991</v>
@@ -9153,7 +9171,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -9178,7 +9196,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -9203,7 +9221,7 @@
         <v>39063</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>218</v>
@@ -9225,7 +9243,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="47" t="s">
         <v>219</v>
       </c>
@@ -9243,7 +9261,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39083</v>
       </c>
@@ -9267,7 +9285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>221</v>
@@ -9289,7 +9307,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39114</v>
@@ -9314,7 +9332,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" ref="A227:A242" si="8">EDATE(A226,1)</f>
         <v>39142</v>
@@ -9337,7 +9355,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>224</v>
@@ -9359,7 +9377,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39173</v>
@@ -9384,7 +9402,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>119</v>
@@ -9404,7 +9422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>227</v>
@@ -9426,7 +9444,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f>EDATE(A229,1)</f>
         <v>39203</v>
@@ -9451,7 +9469,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -9476,7 +9494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>230</v>
@@ -9498,7 +9516,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39264</v>
@@ -9523,7 +9541,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>231</v>
@@ -9545,7 +9563,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>39295</v>
@@ -9570,7 +9588,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>232</v>
@@ -9592,7 +9610,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39326</v>
@@ -9617,7 +9635,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>235</v>
@@ -9639,7 +9657,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39356</v>
@@ -9664,7 +9682,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -9689,7 +9707,7 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>108</v>
@@ -9711,7 +9729,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>238</v>
@@ -9733,7 +9751,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>39417</v>
@@ -9756,7 +9774,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>239</v>
@@ -9778,7 +9796,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>240</v>
       </c>
@@ -9796,7 +9814,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>39448</v>
       </c>
@@ -9820,7 +9838,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>241</v>
@@ -9842,7 +9860,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39479</v>
@@ -9867,7 +9885,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>244</v>
@@ -9889,7 +9907,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39508</v>
@@ -9912,7 +9930,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>208</v>
@@ -9934,7 +9952,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>246</v>
@@ -9956,7 +9974,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f>EDATE(A252,1)</f>
         <v>39539</v>
@@ -9981,7 +9999,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>247</v>
@@ -10001,7 +10019,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39569</v>
@@ -10026,7 +10044,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>39600</v>
@@ -10051,7 +10069,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>251</v>
@@ -10073,7 +10091,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39630</v>
@@ -10098,7 +10116,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" ref="A261:A264" si="9">EDATE(A260,1)</f>
         <v>39661</v>
@@ -10123,7 +10141,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -10148,7 +10166,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="9"/>
         <v>39722</v>
@@ -10173,7 +10191,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -10198,7 +10216,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>256</v>
@@ -10220,7 +10238,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>39783</v>
@@ -10243,7 +10261,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -10265,7 +10283,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="47" t="s">
         <v>257</v>
       </c>
@@ -10283,7 +10301,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39814</v>
       </c>
@@ -10307,7 +10325,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>258</v>
@@ -10329,7 +10347,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>39845</v>
@@ -10354,7 +10372,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>260</v>
@@ -10376,7 +10394,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>119</v>
@@ -10396,7 +10414,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A271,1)</f>
         <v>39873</v>
@@ -10419,7 +10437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>262</v>
@@ -10441,7 +10459,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39904</v>
@@ -10466,7 +10484,7 @@
         <v>40029</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>264</v>
@@ -10488,7 +10506,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f>EDATE(A276,1)</f>
         <v>39934</v>
@@ -10513,7 +10531,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A292" si="10">EDATE(A278,1)</f>
         <v>39965</v>
@@ -10538,7 +10556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>187</v>
@@ -10558,7 +10576,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>268</v>
@@ -10580,7 +10598,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39995</v>
@@ -10605,7 +10623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>108</v>
@@ -10627,7 +10645,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -10649,7 +10667,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>271</v>
@@ -10671,7 +10689,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>40026</v>
@@ -10696,7 +10714,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -10721,7 +10739,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>273</v>
@@ -10743,7 +10761,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40087</v>
@@ -10768,7 +10786,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>275</v>
@@ -10790,7 +10808,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>40118</v>
@@ -10815,7 +10833,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -10842,7 +10860,7 @@
         <v>39976</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>277</v>
@@ -10862,7 +10880,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="47" t="s">
         <v>278</v>
       </c>
@@ -10880,7 +10898,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40179</v>
       </c>
@@ -10904,7 +10922,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A295,1)</f>
         <v>40210</v>
@@ -10929,7 +10947,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>281</v>
@@ -10951,7 +10969,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40238</v>
@@ -10976,7 +10994,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10998,7 +11016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>284</v>
@@ -11020,7 +11038,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40269</v>
@@ -11045,7 +11063,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -11067,7 +11085,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>286</v>
@@ -11089,7 +11107,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40299</v>
@@ -11114,7 +11132,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>289</v>
@@ -11136,7 +11154,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40330</v>
@@ -11161,7 +11179,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A312" si="11">EDATE(A306,1)</f>
         <v>40360</v>
@@ -11186,7 +11204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>293</v>
@@ -11208,7 +11226,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40391</v>
@@ -11233,7 +11251,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>246</v>
@@ -11255,7 +11273,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40422</v>
@@ -11280,7 +11298,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="11"/>
         <v>40452</v>
@@ -11305,7 +11323,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>297</v>
@@ -11327,7 +11345,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11352,7 +11370,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>299</v>
@@ -11374,7 +11392,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="52"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40513</v>
@@ -11399,7 +11417,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="47" t="s">
         <v>301</v>
       </c>
@@ -11417,7 +11435,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40544</v>
       </c>
@@ -11441,7 +11459,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>303</v>
@@ -11463,7 +11481,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -11488,7 +11506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>305</v>
@@ -11510,7 +11528,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40603</v>
@@ -11533,7 +11551,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>307</v>
@@ -11555,7 +11573,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40634</v>
@@ -11580,7 +11598,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A335" si="12">EDATE(A324,1)</f>
         <v>40664</v>
@@ -11605,7 +11623,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>310</v>
@@ -11627,7 +11645,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>40695</v>
@@ -11652,7 +11670,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -11677,7 +11695,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -11702,7 +11720,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>79</v>
@@ -11724,7 +11742,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40787</v>
@@ -11749,7 +11767,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>315</v>
@@ -11771,7 +11789,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>40817</v>
@@ -11796,7 +11814,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="12"/>
         <v>40848</v>
@@ -11821,7 +11839,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="12"/>
         <v>40878</v>
@@ -11846,7 +11864,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>319</v>
@@ -11868,7 +11886,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="47" t="s">
         <v>320</v>
       </c>
@@ -11886,7 +11904,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40909</v>
       </c>
@@ -11910,7 +11928,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>40940</v>
@@ -11933,7 +11951,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>323</v>
@@ -11955,7 +11973,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40969</v>
@@ -11980,7 +11998,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A355" si="13">EDATE(A341,1)</f>
         <v>41000</v>
@@ -12005,7 +12023,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="13"/>
         <v>41030</v>
@@ -12026,7 +12044,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12052,7 +12070,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -12075,7 +12093,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>212</v>
@@ -12097,7 +12115,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A345,1)</f>
         <v>41091</v>
@@ -12122,7 +12140,7 @@
       <c r="J347" s="12"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="13"/>
         <v>41122</v>
@@ -12147,7 +12165,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -12172,7 +12190,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>242</v>
@@ -12194,7 +12212,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>332</v>
@@ -12216,7 +12234,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>41183</v>
@@ -12239,7 +12257,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>334</v>
@@ -12261,7 +12279,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41214</v>
@@ -12286,7 +12304,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="13"/>
         <v>41244</v>
@@ -12311,7 +12329,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>336</v>
@@ -12333,7 +12351,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="47" t="s">
         <v>337</v>
       </c>
@@ -12351,7 +12369,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>41275</v>
       </c>
@@ -12375,7 +12393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -12397,7 +12415,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>339</v>
@@ -12419,7 +12437,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>41306</v>
@@ -12444,7 +12462,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>242</v>
@@ -12466,7 +12484,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>321</v>
@@ -12488,7 +12506,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A361,1)</f>
         <v>41334</v>
@@ -12511,7 +12529,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>157</v>
@@ -12533,7 +12551,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41365</v>
@@ -12558,7 +12576,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>45</v>
@@ -12580,7 +12598,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>344</v>
@@ -12602,7 +12620,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>41395</v>
@@ -12627,7 +12645,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A369,1)</f>
         <v>41426</v>
@@ -12652,7 +12670,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>345</v>
@@ -12672,7 +12690,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>41456</v>
@@ -12695,7 +12713,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>349</v>
@@ -12717,7 +12735,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>351</v>
@@ -12739,7 +12757,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A372,1)</f>
         <v>41487</v>
@@ -12764,7 +12782,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>352</v>
@@ -12786,7 +12804,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41518</v>
@@ -12811,7 +12829,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>355</v>
@@ -12833,7 +12851,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>41548</v>
@@ -12858,7 +12876,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>357</v>
@@ -12880,7 +12898,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41579</v>
@@ -12905,7 +12923,7 @@
         <v>41436</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>358</v>
@@ -12927,7 +12945,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" ref="A383" si="14">EDATE(A381,1)</f>
         <v>41609</v>
@@ -12952,7 +12970,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="47" t="s">
         <v>360</v>
       </c>
@@ -12970,7 +12988,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41640</v>
       </c>
@@ -12994,7 +13012,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>157</v>
@@ -13016,7 +13034,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>41671</v>
@@ -13041,7 +13059,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>45</v>
@@ -13063,7 +13081,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>361</v>
@@ -13085,7 +13103,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A387,1)</f>
         <v>41699</v>
@@ -13110,7 +13128,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>108</v>
@@ -13132,7 +13150,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>365</v>
@@ -13154,7 +13172,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>41730</v>
@@ -13179,7 +13197,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" ref="A394:A405" si="15">EDATE(A393,1)</f>
         <v>41760</v>
@@ -13204,7 +13222,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -13226,7 +13244,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>369</v>
@@ -13248,7 +13266,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A394,1)</f>
         <v>41791</v>
@@ -13273,7 +13291,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>370</v>
@@ -13295,7 +13313,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A397,1)</f>
         <v>41821</v>
@@ -13320,7 +13338,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>372</v>
@@ -13342,7 +13360,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>41852</v>
@@ -13367,7 +13385,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -13392,7 +13410,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>303</v>
@@ -13414,7 +13432,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41913</v>
@@ -13439,7 +13457,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -13462,7 +13480,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>208</v>
@@ -13484,7 +13502,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>379</v>
@@ -13506,7 +13524,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41974</v>
@@ -13531,7 +13549,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="47" t="s">
         <v>381</v>
       </c>
@@ -13549,7 +13567,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42005</v>
       </c>
@@ -13573,7 +13591,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>42036</v>
@@ -13598,7 +13616,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A431" si="16">EDATE(A411,1)</f>
         <v>42064</v>
@@ -13621,7 +13639,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>384</v>
@@ -13643,7 +13661,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>42095</v>
@@ -13668,7 +13686,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>387</v>
@@ -13690,7 +13708,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>42125</v>
@@ -13715,7 +13733,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -13735,7 +13753,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>171</v>
@@ -13757,7 +13775,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A416,1)</f>
         <v>42156</v>
@@ -13780,7 +13798,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>391</v>
@@ -13802,7 +13820,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>42186</v>
@@ -13827,7 +13845,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>393</v>
@@ -13849,7 +13867,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>42217</v>
@@ -13874,7 +13892,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>141</v>
@@ -13896,7 +13914,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42248</v>
@@ -13921,7 +13939,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13943,7 +13961,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>45</v>
@@ -13965,7 +13983,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>395</v>
@@ -13987,7 +14005,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>42278</v>
@@ -14012,7 +14030,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -14037,7 +14055,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -14062,7 +14080,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>171</v>
@@ -14084,7 +14102,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="47" t="s">
         <v>399</v>
       </c>
@@ -14102,7 +14120,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42370</v>
       </c>
@@ -14126,7 +14144,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A434,1)</f>
         <v>42401</v>
@@ -14151,7 +14169,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>401</v>
@@ -14173,7 +14191,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>42430</v>
@@ -14198,7 +14216,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>402</v>
@@ -14220,7 +14238,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>42461</v>
@@ -14245,7 +14263,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>242</v>
@@ -14267,7 +14285,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>403</v>
@@ -14289,7 +14307,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>42491</v>
@@ -14314,7 +14332,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" ref="A443:A450" si="17">EDATE(A442,1)</f>
         <v>42522</v>
@@ -14339,7 +14357,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -14364,7 +14382,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -14389,7 +14407,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -14414,7 +14432,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>45</v>
@@ -14436,7 +14454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>411</v>
@@ -14458,7 +14476,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f>EDATE(A446,1)</f>
         <v>42644</v>
@@ -14483,7 +14501,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -14508,7 +14526,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>108</v>
@@ -14530,7 +14548,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>351</v>
@@ -14552,7 +14570,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>42705</v>
@@ -14577,7 +14595,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="15"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="47" t="s">
         <v>417</v>
       </c>
@@ -14595,7 +14613,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42736</v>
       </c>
@@ -14619,7 +14637,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f>EDATE(A455,1)</f>
         <v>42767</v>
@@ -14642,7 +14660,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>418</v>
@@ -14664,7 +14682,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42795</v>
@@ -14689,7 +14707,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A471" si="18">EDATE(A458,1)</f>
         <v>42826</v>
@@ -14714,7 +14732,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -14739,7 +14757,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>108</v>
@@ -14761,7 +14779,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>423</v>
@@ -14783,7 +14801,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>42887</v>
@@ -14808,7 +14826,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>45</v>
@@ -14830,7 +14848,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>425</v>
@@ -14852,7 +14870,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42917</v>
@@ -14877,7 +14895,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -14902,7 +14920,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>427</v>
@@ -14924,7 +14942,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>42979</v>
@@ -14949,7 +14967,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -14974,7 +14992,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -14999,7 +15017,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13">
@@ -15017,7 +15035,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>43070</v>
@@ -15038,7 +15056,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="47" t="s">
         <v>432</v>
       </c>
@@ -15056,7 +15074,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -15076,7 +15094,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A475,1)</f>
         <v>43132</v>
@@ -15097,7 +15115,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A490" si="19">EDATE(A476,1)</f>
         <v>43160</v>
@@ -15120,7 +15138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -15138,7 +15156,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43191</v>
@@ -15159,7 +15177,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -15184,7 +15202,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13">
@@ -15202,7 +15220,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>43252</v>
@@ -15223,7 +15241,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="19"/>
         <v>43282</v>
@@ -15248,7 +15266,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -15266,7 +15284,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f>EDATE(A483,1)</f>
         <v>43313</v>
@@ -15287,7 +15305,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="19"/>
         <v>43344</v>
@@ -15312,7 +15330,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13">
@@ -15330,7 +15348,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>43374</v>
@@ -15351,7 +15369,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>43405</v>
@@ -15372,7 +15390,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>43435</v>
@@ -15397,7 +15415,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13">
@@ -15415,7 +15433,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="47" t="s">
         <v>438</v>
       </c>
@@ -15433,7 +15451,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43466</v>
       </c>
@@ -15453,7 +15471,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>43497</v>
@@ -15474,7 +15492,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f t="shared" ref="A495:A509" si="20">EDATE(A494,1)</f>
         <v>43525</v>
@@ -15499,7 +15517,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>119</v>
@@ -15519,7 +15537,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15541,7 +15559,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -15559,7 +15577,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A495,1)</f>
         <v>43556</v>
@@ -15580,7 +15598,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="20"/>
         <v>43586</v>
@@ -15601,7 +15619,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="20"/>
         <v>43617</v>
@@ -15622,7 +15640,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="20"/>
         <v>43647</v>
@@ -15647,7 +15665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13">
@@ -15665,7 +15683,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>43678</v>
@@ -15686,7 +15704,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -15711,7 +15729,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -15729,7 +15747,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>43739</v>
@@ -15750,7 +15768,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -15771,7 +15789,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" si="20"/>
         <v>43800</v>
@@ -15792,7 +15810,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="47" t="s">
         <v>443</v>
       </c>
@@ -15810,7 +15828,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43831</v>
       </c>
@@ -15830,7 +15848,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>43862</v>
@@ -15853,7 +15871,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13">
@@ -15871,7 +15889,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43891</v>
@@ -15894,7 +15912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15912,7 +15930,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f>EDATE(A514,1)</f>
         <v>43922</v>
@@ -15933,7 +15951,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" ref="A517:A526" si="21">EDATE(A516,1)</f>
         <v>43952</v>
@@ -15954,7 +15972,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -15975,7 +15993,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <f t="shared" si="21"/>
         <v>44013</v>
@@ -16000,7 +16018,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -16018,7 +16036,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A519,1)</f>
         <v>44044</v>
@@ -16039,7 +16057,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -16060,7 +16078,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f>EDATE(A522,1)</f>
         <v>44105</v>
@@ -16085,7 +16103,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -16103,7 +16121,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A523,1)</f>
         <v>44136</v>
@@ -16124,7 +16142,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="21"/>
         <v>44166</v>
@@ -16149,7 +16167,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="47" t="s">
         <v>450</v>
       </c>
@@ -16167,7 +16185,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44197</v>
       </c>
@@ -16187,7 +16205,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A528,1)</f>
         <v>44228</v>
@@ -16212,7 +16230,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -16230,7 +16248,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>44256</v>
@@ -16251,7 +16269,7 @@
       <c r="J531" s="12"/>
       <c r="K531" s="15"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A540" si="22">EDATE(A531,1)</f>
         <v>44287</v>
@@ -16272,7 +16290,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -16293,7 +16311,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -16314,7 +16332,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -16339,7 +16357,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13">
@@ -16357,7 +16375,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>44409</v>
@@ -16378,7 +16396,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -16399,7 +16417,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -16420,7 +16438,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f t="shared" si="22"/>
         <v>44501</v>
@@ -16445,7 +16463,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13">
@@ -16463,7 +16481,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f>EDATE(A540,1)</f>
         <v>44531</v>
@@ -16484,7 +16502,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="47" t="s">
         <v>454</v>
       </c>
@@ -16502,7 +16520,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44562</v>
       </c>
@@ -16528,7 +16546,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A544,1)</f>
         <v>44593</v>
@@ -16549,7 +16567,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" ref="A546" si="23">EDATE(A545,1)</f>
         <v>44621</v>
@@ -16572,7 +16590,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>108</v>
@@ -16592,7 +16610,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -16610,7 +16628,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f>EDATE(A546,1)</f>
         <v>44652</v>
@@ -16633,7 +16651,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>45</v>
@@ -16657,7 +16675,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -16677,7 +16695,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44713</v>
       </c>
@@ -16697,7 +16715,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44743</v>
       </c>
@@ -16717,7 +16735,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44774</v>
       </c>
@@ -16737,7 +16755,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44805</v>
       </c>
@@ -16763,7 +16781,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44835</v>
       </c>
@@ -16789,7 +16807,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>44866</v>
       </c>
@@ -16809,7 +16827,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44896</v>
       </c>
@@ -16833,7 +16851,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="47" t="s">
         <v>458</v>
       </c>
@@ -16851,7 +16869,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44927</v>
       </c>
@@ -16871,7 +16889,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44958</v>
       </c>
@@ -16897,7 +16915,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44986</v>
       </c>
@@ -16921,7 +16939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45017</v>
       </c>
@@ -16939,7 +16957,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
@@ -16957,7 +16975,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45078</v>
       </c>
@@ -16975,7 +16993,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45108</v>
       </c>
@@ -16993,7 +17011,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45139</v>
       </c>
@@ -17011,7 +17029,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45170</v>
       </c>
@@ -17029,7 +17047,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45200</v>
       </c>
@@ -17047,7 +17065,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45231</v>
       </c>
@@ -17065,7 +17083,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45261</v>
       </c>
@@ -17083,7 +17101,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45292</v>
       </c>
@@ -17101,7 +17119,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45323</v>
       </c>
@@ -17119,7 +17137,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45352</v>
       </c>
@@ -17137,7 +17155,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45383</v>
       </c>
@@ -17155,7 +17173,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45413</v>
       </c>
@@ -17188,10 +17206,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17214,29 +17232,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -17249,7 +17267,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17278,7 +17296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17304,17 +17322,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>465</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17335,7 +17356,11 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>192.68499999999995</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17362,7 +17387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17388,7 +17413,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17414,7 +17439,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17440,7 +17465,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17466,7 +17491,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17492,7 +17517,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17518,7 +17543,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17544,7 +17569,10 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17564,7 +17592,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17584,7 +17612,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17604,7 +17632,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17625,7 +17653,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17646,7 +17674,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17667,7 +17695,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17688,7 +17716,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17709,7 +17737,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17730,7 +17758,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17751,7 +17779,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17772,7 +17800,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17793,7 +17821,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17814,7 +17842,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17835,7 +17863,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17856,7 +17884,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17877,7 +17905,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17898,7 +17926,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17919,7 +17947,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17940,7 +17968,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17961,7 +17989,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17982,7 +18010,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18003,7 +18031,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18024,7 +18052,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18033,7 +18061,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18042,7 +18070,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18051,7 +18079,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18060,7 +18088,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18069,7 +18097,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18078,7 +18106,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18087,7 +18115,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18096,7 +18124,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18105,7 +18133,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18114,7 +18142,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18123,7 +18151,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18132,7 +18160,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18141,7 +18169,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18150,7 +18178,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18159,7 +18187,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18168,7 +18196,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18177,7 +18205,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18186,7 +18214,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18195,7 +18223,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18204,7 +18232,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18213,7 +18241,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18222,7 +18250,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18231,7 +18259,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18240,7 +18268,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18249,7 +18277,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18258,7 +18286,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18267,7 +18295,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18276,7 +18304,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18285,7 +18313,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/FERMA, JOSEFA.xlsx
+++ b/REGULAR/FERMA, JOSEFA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AC4F7-9E47-485D-B11C-2A0181494AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="469">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1447,7 +1446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2342,7 +2341,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2384,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2448,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2508,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2574,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2637,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2735,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2794,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2859,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2902,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2977,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3163,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3229,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3287,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3354,7 +3353,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3410,7 +3409,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3484,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3527,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3593,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3649,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3748,7 +3747,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,7 +3810,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,38 +3876,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3917,14 +3916,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4228,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4238,7 +4237,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4246,34 +4245,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A476"/>
+      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="B563" sqref="B563"/>
+      <selection pane="bottomLeft" activeCell="B565" sqref="B565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4294,7 +4293,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4334,7 +4333,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4342,7 +4341,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4355,7 +4354,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4372,7 +4371,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4416,7 +4415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.434999999999945</v>
+        <v>27.684999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4426,12 +4425,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>165.25</v>
+        <v>166.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4453,7 +4452,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36342</v>
       </c>
@@ -4477,7 +4476,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36373</v>
@@ -4502,7 +4501,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -4524,7 +4523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -4546,7 +4545,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -4571,7 +4570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>49</v>
@@ -4593,7 +4592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4615,7 +4614,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>36434</v>
@@ -4640,7 +4639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -4662,7 +4661,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4684,7 +4683,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4709,7 +4708,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22" si="0">EDATE(A21,1)</f>
         <v>36495</v>
@@ -4734,7 +4733,7 @@
         <v>36323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4756,7 +4755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -4780,7 +4779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -4800,7 +4799,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -4820,7 +4819,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>62</v>
       </c>
@@ -4838,7 +4837,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36526</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -4884,7 +4883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>65</v>
@@ -4906,7 +4905,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36557</v>
@@ -4931,7 +4930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>67</v>
@@ -4953,7 +4952,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36586</v>
@@ -4978,7 +4977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -5000,7 +4999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -5022,7 +5021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>119</v>
@@ -5042,7 +5041,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -5066,7 +5065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5082,7 +5081,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A33,1)</f>
         <v>36617</v>
@@ -5107,7 +5106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -5129,7 +5128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>75</v>
@@ -5151,7 +5150,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36647</v>
@@ -5176,7 +5175,7 @@
         <v>36743</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -5198,7 +5197,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36678</v>
@@ -5223,7 +5222,7 @@
         <v>36652</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -5245,7 +5244,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -5267,7 +5266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -5289,7 +5288,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A44,1)</f>
         <v>36708</v>
@@ -5314,7 +5313,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -5336,7 +5335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -5356,7 +5355,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5378,7 +5377,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36739</v>
@@ -5403,7 +5402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>57</v>
@@ -5425,7 +5424,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>84</v>
@@ -5447,7 +5446,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36770</v>
@@ -5472,7 +5471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -5494,7 +5493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -5516,7 +5515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>88</v>
@@ -5536,7 +5535,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A55,1)</f>
         <v>36800</v>
@@ -5561,7 +5560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -5583,7 +5582,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>48</v>
@@ -5605,7 +5604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -5627,7 +5626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -5649,7 +5648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>89</v>
@@ -5669,7 +5668,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65" si="1">EDATE(A59,1)</f>
         <v>36831</v>
@@ -5694,7 +5693,7 @@
         <v>36749</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5716,7 +5715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>45</v>
@@ -5738,7 +5737,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>84</v>
@@ -5760,7 +5759,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A65,1)</f>
         <v>36861</v>
@@ -5785,7 +5784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>49</v>
@@ -5807,7 +5806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>55</v>
@@ -5829,7 +5828,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>99</v>
       </c>
@@ -5847,7 +5846,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36892</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>36951</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>45</v>
@@ -5893,7 +5892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -5915,7 +5914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>102</v>
@@ -5937,7 +5936,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A73,1)</f>
         <v>36923</v>
@@ -5962,7 +5961,7 @@
         <v>37044</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -5984,7 +5983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>53</v>
@@ -6006,7 +6005,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -6028,7 +6027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>107</v>
@@ -6050,7 +6049,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36951</v>
@@ -6075,7 +6074,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -6097,7 +6096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -6119,7 +6118,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36982</v>
@@ -6144,7 +6143,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -6162,7 +6161,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>37012</v>
@@ -6187,7 +6186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>115</v>
@@ -6209,7 +6208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -6228,7 +6227,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>119</v>
@@ -6248,7 +6247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>118</v>
@@ -6270,7 +6269,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A87,1)</f>
         <v>37043</v>
@@ -6295,7 +6294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>57</v>
@@ -6317,7 +6316,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>122</v>
@@ -6339,7 +6338,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37073</v>
@@ -6364,7 +6363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -6383,7 +6382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>125</v>
@@ -6405,7 +6404,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A95,1)</f>
         <v>37104</v>
@@ -6430,7 +6429,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6452,7 +6451,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>127</v>
@@ -6474,7 +6473,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A98,1)</f>
         <v>37135</v>
@@ -6499,7 +6498,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>128</v>
@@ -6521,7 +6520,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37165</v>
@@ -6546,7 +6545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -6564,7 +6563,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37196</v>
@@ -6585,7 +6584,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" ref="A106" si="2">EDATE(A105,1)</f>
         <v>37226</v>
@@ -6606,7 +6605,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>130</v>
       </c>
@@ -6624,7 +6623,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37257</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6666,7 +6665,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>37288</v>
@@ -6687,7 +6686,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="3">EDATE(A110,1)</f>
         <v>37316</v>
@@ -6712,7 +6711,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>119</v>
@@ -6734,7 +6733,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>37347</v>
@@ -6759,7 +6758,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>119</v>
@@ -6781,7 +6780,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37377</v>
@@ -6802,7 +6801,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -6827,7 +6826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -6845,7 +6844,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37438</v>
@@ -6866,7 +6865,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6891,7 +6890,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6909,7 +6908,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6934,7 +6933,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>90</v>
@@ -6956,7 +6955,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>138</v>
@@ -6978,7 +6977,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37530</v>
@@ -6999,7 +6998,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -7024,7 +7023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>140</v>
@@ -7046,7 +7045,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>37591</v>
@@ -7071,7 +7070,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>141</v>
@@ -7093,7 +7092,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>142</v>
       </c>
@@ -7111,7 +7110,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37622</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>145</v>
@@ -7157,7 +7156,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37653</v>
@@ -7182,7 +7181,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>70</v>
@@ -7204,7 +7203,7 @@
         <v>37743</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>147</v>
@@ -7226,7 +7225,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -7249,7 +7248,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>148</v>
@@ -7271,7 +7270,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -7296,7 +7295,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A145" si="4">EDATE(A137,1)</f>
         <v>37742</v>
@@ -7321,7 +7320,7 @@
         <v>37838</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>119</v>
@@ -7341,7 +7340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7359,7 +7358,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7380,7 +7379,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -7405,7 +7404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -7423,7 +7422,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37834</v>
@@ -7444,7 +7443,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -7469,7 +7468,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>154</v>
@@ -7491,7 +7490,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -7516,7 +7515,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>155</v>
@@ -7538,7 +7537,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7563,7 +7562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>157</v>
@@ -7585,7 +7584,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37956</v>
@@ -7610,7 +7609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -7632,7 +7631,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>159</v>
       </c>
@@ -7650,7 +7649,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37987</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>147</v>
@@ -7696,7 +7695,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38018</v>
@@ -7719,7 +7718,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>162</v>
@@ -7741,7 +7740,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A156,1)</f>
         <v>38047</v>
@@ -7766,7 +7765,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>53</v>
@@ -7788,7 +7787,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>163</v>
@@ -7810,7 +7809,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7835,7 +7834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>119</v>
@@ -7855,7 +7854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>165</v>
@@ -7877,7 +7876,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>38108</v>
@@ -7902,7 +7901,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A175" si="5">EDATE(A164,1)</f>
         <v>38139</v>
@@ -7927,7 +7926,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7952,7 +7951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -7974,7 +7973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>171</v>
@@ -7996,7 +7995,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A166,1)</f>
         <v>38200</v>
@@ -8021,7 +8020,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A169,1)</f>
         <v>38231</v>
@@ -8044,7 +8043,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>173</v>
@@ -8066,7 +8065,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38261</v>
@@ -8091,7 +8090,7 @@
         <v>38331</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>174</v>
@@ -8113,7 +8112,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>38292</v>
@@ -8138,7 +8137,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="5"/>
         <v>38322</v>
@@ -8163,7 +8162,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>177</v>
       </c>
@@ -8181,7 +8180,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38353</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>45</v>
@@ -8227,7 +8226,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>179</v>
@@ -8249,7 +8248,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -8274,7 +8273,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A200" si="6">EDATE(A180,1)</f>
         <v>38412</v>
@@ -8297,7 +8296,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>182</v>
@@ -8319,7 +8318,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38443</v>
@@ -8344,7 +8343,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>184</v>
@@ -8366,7 +8365,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38473</v>
@@ -8391,7 +8390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>187</v>
@@ -8411,7 +8410,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -8433,7 +8432,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A185,1)</f>
         <v>38504</v>
@@ -8458,7 +8457,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>145</v>
@@ -8480,7 +8479,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>38534</v>
@@ -8505,7 +8504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>191</v>
@@ -8525,7 +8524,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>193</v>
@@ -8547,7 +8546,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38565</v>
@@ -8572,7 +8571,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -8597,7 +8596,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>108</v>
@@ -8619,7 +8618,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>196</v>
@@ -8641,7 +8640,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A194,1)</f>
         <v>38626</v>
@@ -8666,7 +8665,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>199</v>
@@ -8688,7 +8687,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f>EDATE(A197,1)</f>
         <v>38657</v>
@@ -8713,7 +8712,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="6"/>
         <v>38687</v>
@@ -8738,7 +8737,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>201</v>
@@ -8760,7 +8759,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>202</v>
       </c>
@@ -8778,7 +8777,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -8802,7 +8801,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>38749</v>
@@ -8825,7 +8824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>45</v>
@@ -8847,7 +8846,7 @@
         <v>38720</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>205</v>
@@ -8869,7 +8868,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38777</v>
@@ -8892,7 +8891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>207</v>
@@ -8914,7 +8913,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38808</v>
@@ -8935,7 +8934,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>208</v>
@@ -8957,7 +8956,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>210</v>
@@ -8977,7 +8976,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A209,1)</f>
         <v>38838</v>
@@ -9002,7 +9001,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" ref="A213:A221" si="7">EDATE(A212,1)</f>
         <v>38869</v>
@@ -9027,7 +9026,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -9052,7 +9051,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -9077,7 +9076,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -9102,7 +9101,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>208</v>
@@ -9124,7 +9123,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>216</v>
@@ -9146,7 +9145,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A216,1)</f>
         <v>38991</v>
@@ -9171,7 +9170,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -9196,7 +9195,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -9221,7 +9220,7 @@
         <v>39063</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>218</v>
@@ -9243,7 +9242,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="47" t="s">
         <v>219</v>
       </c>
@@ -9261,7 +9260,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39083</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>221</v>
@@ -9307,7 +9306,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39114</v>
@@ -9332,7 +9331,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" ref="A227:A242" si="8">EDATE(A226,1)</f>
         <v>39142</v>
@@ -9355,7 +9354,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>224</v>
@@ -9377,7 +9376,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39173</v>
@@ -9402,7 +9401,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>119</v>
@@ -9422,7 +9421,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>227</v>
@@ -9444,7 +9443,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A229,1)</f>
         <v>39203</v>
@@ -9469,7 +9468,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -9494,7 +9493,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>230</v>
@@ -9516,7 +9515,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39264</v>
@@ -9541,7 +9540,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>231</v>
@@ -9563,7 +9562,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>39295</v>
@@ -9588,7 +9587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>232</v>
@@ -9610,7 +9609,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39326</v>
@@ -9635,7 +9634,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>235</v>
@@ -9657,7 +9656,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39356</v>
@@ -9682,7 +9681,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -9707,7 +9706,7 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>108</v>
@@ -9729,7 +9728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>238</v>
@@ -9751,7 +9750,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>39417</v>
@@ -9774,7 +9773,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>239</v>
@@ -9796,7 +9795,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>240</v>
       </c>
@@ -9814,7 +9813,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39448</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>241</v>
@@ -9860,7 +9859,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39479</v>
@@ -9885,7 +9884,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>244</v>
@@ -9907,7 +9906,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39508</v>
@@ -9930,7 +9929,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>208</v>
@@ -9952,7 +9951,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>246</v>
@@ -9974,7 +9973,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A252,1)</f>
         <v>39539</v>
@@ -9999,7 +9998,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>247</v>
@@ -10019,7 +10018,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39569</v>
@@ -10044,7 +10043,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>39600</v>
@@ -10069,7 +10068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>251</v>
@@ -10091,7 +10090,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39630</v>
@@ -10116,7 +10115,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" ref="A261:A264" si="9">EDATE(A260,1)</f>
         <v>39661</v>
@@ -10141,7 +10140,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -10166,7 +10165,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="9"/>
         <v>39722</v>
@@ -10191,7 +10190,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -10216,7 +10215,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>256</v>
@@ -10238,7 +10237,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>39783</v>
@@ -10261,7 +10260,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -10283,7 +10282,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="47" t="s">
         <v>257</v>
       </c>
@@ -10301,7 +10300,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39814</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>258</v>
@@ -10347,7 +10346,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>39845</v>
@@ -10372,7 +10371,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>260</v>
@@ -10394,7 +10393,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>119</v>
@@ -10414,7 +10413,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A271,1)</f>
         <v>39873</v>
@@ -10437,7 +10436,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>262</v>
@@ -10459,7 +10458,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39904</v>
@@ -10484,7 +10483,7 @@
         <v>40029</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>264</v>
@@ -10506,7 +10505,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A276,1)</f>
         <v>39934</v>
@@ -10531,7 +10530,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A292" si="10">EDATE(A278,1)</f>
         <v>39965</v>
@@ -10556,7 +10555,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>187</v>
@@ -10576,7 +10575,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>268</v>
@@ -10598,7 +10597,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>39995</v>
@@ -10623,7 +10622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>108</v>
@@ -10645,7 +10644,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -10667,7 +10666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>271</v>
@@ -10689,7 +10688,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>40026</v>
@@ -10714,7 +10713,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -10739,7 +10738,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>273</v>
@@ -10761,7 +10760,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40087</v>
@@ -10786,7 +10785,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>275</v>
@@ -10808,7 +10807,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>40118</v>
@@ -10833,7 +10832,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -10860,7 +10859,7 @@
         <v>39976</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>277</v>
@@ -10880,7 +10879,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>278</v>
       </c>
@@ -10898,7 +10897,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40179</v>
       </c>
@@ -10922,7 +10921,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A295,1)</f>
         <v>40210</v>
@@ -10947,7 +10946,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>281</v>
@@ -10969,7 +10968,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40238</v>
@@ -10994,7 +10993,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -11016,7 +11015,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>284</v>
@@ -11038,7 +11037,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40269</v>
@@ -11063,7 +11062,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -11085,7 +11084,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>286</v>
@@ -11107,7 +11106,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40299</v>
@@ -11132,7 +11131,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>289</v>
@@ -11154,7 +11153,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40330</v>
@@ -11179,7 +11178,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A312" si="11">EDATE(A306,1)</f>
         <v>40360</v>
@@ -11204,7 +11203,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>293</v>
@@ -11226,7 +11225,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40391</v>
@@ -11251,7 +11250,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>246</v>
@@ -11273,7 +11272,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40422</v>
@@ -11298,7 +11297,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="11"/>
         <v>40452</v>
@@ -11323,7 +11322,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>297</v>
@@ -11345,7 +11344,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11370,7 +11369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>299</v>
@@ -11392,7 +11391,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="52"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>40513</v>
@@ -11417,7 +11416,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="47" t="s">
         <v>301</v>
       </c>
@@ -11435,7 +11434,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40544</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>303</v>
@@ -11481,7 +11480,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -11506,7 +11505,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>305</v>
@@ -11528,7 +11527,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40603</v>
@@ -11551,7 +11550,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>307</v>
@@ -11573,7 +11572,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40634</v>
@@ -11598,7 +11597,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A335" si="12">EDATE(A324,1)</f>
         <v>40664</v>
@@ -11623,7 +11622,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>310</v>
@@ -11645,7 +11644,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>40695</v>
@@ -11670,7 +11669,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -11695,7 +11694,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -11720,7 +11719,7 @@
         <v>40582</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>79</v>
@@ -11742,7 +11741,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40787</v>
@@ -11767,7 +11766,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>315</v>
@@ -11789,7 +11788,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>40817</v>
@@ -11814,7 +11813,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="12"/>
         <v>40848</v>
@@ -11839,7 +11838,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="12"/>
         <v>40878</v>
@@ -11864,7 +11863,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>319</v>
@@ -11886,7 +11885,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="47" t="s">
         <v>320</v>
       </c>
@@ -11904,7 +11903,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40909</v>
       </c>
@@ -11928,7 +11927,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>40940</v>
@@ -11951,7 +11950,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>323</v>
@@ -11973,7 +11972,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40969</v>
@@ -11998,7 +11997,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A355" si="13">EDATE(A341,1)</f>
         <v>41000</v>
@@ -12023,7 +12022,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="13"/>
         <v>41030</v>
@@ -12044,7 +12043,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12070,7 +12069,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -12093,7 +12092,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>212</v>
@@ -12115,7 +12114,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A345,1)</f>
         <v>41091</v>
@@ -12140,7 +12139,7 @@
       <c r="J347" s="12"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="13"/>
         <v>41122</v>
@@ -12165,7 +12164,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -12190,7 +12189,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>242</v>
@@ -12212,7 +12211,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>332</v>
@@ -12234,7 +12233,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>41183</v>
@@ -12257,7 +12256,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>334</v>
@@ -12279,7 +12278,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41214</v>
@@ -12304,7 +12303,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="13"/>
         <v>41244</v>
@@ -12329,7 +12328,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>336</v>
@@ -12351,7 +12350,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="47" t="s">
         <v>337</v>
       </c>
@@ -12369,7 +12368,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>41275</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -12415,7 +12414,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>339</v>
@@ -12437,7 +12436,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>41306</v>
@@ -12462,7 +12461,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>242</v>
@@ -12484,7 +12483,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>321</v>
@@ -12506,7 +12505,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f>EDATE(A361,1)</f>
         <v>41334</v>
@@ -12529,7 +12528,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>157</v>
@@ -12551,7 +12550,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41365</v>
@@ -12576,7 +12575,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>45</v>
@@ -12598,7 +12597,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>344</v>
@@ -12620,7 +12619,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>41395</v>
@@ -12645,7 +12644,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A369,1)</f>
         <v>41426</v>
@@ -12670,7 +12669,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>345</v>
@@ -12690,7 +12689,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>41456</v>
@@ -12713,7 +12712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>349</v>
@@ -12735,7 +12734,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>351</v>
@@ -12757,7 +12756,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A372,1)</f>
         <v>41487</v>
@@ -12782,7 +12781,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>352</v>
@@ -12804,7 +12803,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41518</v>
@@ -12829,7 +12828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>355</v>
@@ -12851,7 +12850,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>41548</v>
@@ -12876,7 +12875,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>357</v>
@@ -12898,7 +12897,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41579</v>
@@ -12923,7 +12922,7 @@
         <v>41436</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>358</v>
@@ -12945,7 +12944,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" ref="A383" si="14">EDATE(A381,1)</f>
         <v>41609</v>
@@ -12970,7 +12969,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="47" t="s">
         <v>360</v>
       </c>
@@ -12988,7 +12987,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41640</v>
       </c>
@@ -13012,7 +13011,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>157</v>
@@ -13034,7 +13033,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>41671</v>
@@ -13059,7 +13058,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>45</v>
@@ -13081,7 +13080,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>361</v>
@@ -13103,7 +13102,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A387,1)</f>
         <v>41699</v>
@@ -13128,7 +13127,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>108</v>
@@ -13150,7 +13149,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>365</v>
@@ -13172,7 +13171,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>41730</v>
@@ -13197,7 +13196,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" ref="A394:A405" si="15">EDATE(A393,1)</f>
         <v>41760</v>
@@ -13222,7 +13221,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -13244,7 +13243,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>369</v>
@@ -13266,7 +13265,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A394,1)</f>
         <v>41791</v>
@@ -13291,7 +13290,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>370</v>
@@ -13313,7 +13312,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A397,1)</f>
         <v>41821</v>
@@ -13338,7 +13337,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>372</v>
@@ -13360,7 +13359,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>41852</v>
@@ -13385,7 +13384,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -13410,7 +13409,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>303</v>
@@ -13432,7 +13431,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41913</v>
@@ -13457,7 +13456,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -13480,7 +13479,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>208</v>
@@ -13502,7 +13501,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>379</v>
@@ -13524,7 +13523,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41974</v>
@@ -13549,7 +13548,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="47" t="s">
         <v>381</v>
       </c>
@@ -13567,7 +13566,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42005</v>
       </c>
@@ -13591,7 +13590,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>42036</v>
@@ -13616,7 +13615,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A431" si="16">EDATE(A411,1)</f>
         <v>42064</v>
@@ -13639,7 +13638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>384</v>
@@ -13661,7 +13660,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>42095</v>
@@ -13686,7 +13685,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>387</v>
@@ -13708,7 +13707,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>42125</v>
@@ -13733,7 +13732,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -13753,7 +13752,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>171</v>
@@ -13775,7 +13774,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A416,1)</f>
         <v>42156</v>
@@ -13798,7 +13797,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>391</v>
@@ -13820,7 +13819,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>42186</v>
@@ -13845,7 +13844,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>393</v>
@@ -13867,7 +13866,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>42217</v>
@@ -13892,7 +13891,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>141</v>
@@ -13914,7 +13913,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42248</v>
@@ -13939,7 +13938,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13961,7 +13960,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>45</v>
@@ -13983,7 +13982,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>395</v>
@@ -14005,7 +14004,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>42278</v>
@@ -14030,7 +14029,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -14055,7 +14054,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -14080,7 +14079,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>171</v>
@@ -14102,7 +14101,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="47" t="s">
         <v>399</v>
       </c>
@@ -14120,7 +14119,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42370</v>
       </c>
@@ -14144,7 +14143,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A434,1)</f>
         <v>42401</v>
@@ -14169,7 +14168,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>401</v>
@@ -14191,7 +14190,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>42430</v>
@@ -14216,7 +14215,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>402</v>
@@ -14238,7 +14237,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>42461</v>
@@ -14263,7 +14262,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>242</v>
@@ -14285,7 +14284,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>403</v>
@@ -14307,7 +14306,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>42491</v>
@@ -14332,7 +14331,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" ref="A443:A450" si="17">EDATE(A442,1)</f>
         <v>42522</v>
@@ -14357,7 +14356,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -14382,7 +14381,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -14407,7 +14406,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -14432,7 +14431,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>45</v>
@@ -14454,7 +14453,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>411</v>
@@ -14476,7 +14475,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A446,1)</f>
         <v>42644</v>
@@ -14501,7 +14500,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -14526,7 +14525,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>108</v>
@@ -14548,7 +14547,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>351</v>
@@ -14570,7 +14569,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>42705</v>
@@ -14595,7 +14594,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="15"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
         <v>417</v>
       </c>
@@ -14613,7 +14612,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42736</v>
       </c>
@@ -14637,7 +14636,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A455,1)</f>
         <v>42767</v>
@@ -14660,7 +14659,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>418</v>
@@ -14682,7 +14681,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42795</v>
@@ -14707,7 +14706,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A471" si="18">EDATE(A458,1)</f>
         <v>42826</v>
@@ -14732,7 +14731,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -14757,7 +14756,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>108</v>
@@ -14779,7 +14778,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>423</v>
@@ -14801,7 +14800,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>42887</v>
@@ -14826,7 +14825,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>45</v>
@@ -14848,7 +14847,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>425</v>
@@ -14870,7 +14869,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A463,1)</f>
         <v>42917</v>
@@ -14895,7 +14894,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -14920,7 +14919,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>427</v>
@@ -14942,7 +14941,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>42979</v>
@@ -14967,7 +14966,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -14992,7 +14991,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -15017,7 +15016,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13">
@@ -15035,7 +15034,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>43070</v>
@@ -15056,7 +15055,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="47" t="s">
         <v>432</v>
       </c>
@@ -15074,7 +15073,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -15094,7 +15093,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A475,1)</f>
         <v>43132</v>
@@ -15115,7 +15114,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A490" si="19">EDATE(A476,1)</f>
         <v>43160</v>
@@ -15138,7 +15137,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -15156,7 +15155,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43191</v>
@@ -15177,7 +15176,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -15202,7 +15201,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13">
@@ -15220,7 +15219,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>43252</v>
@@ -15241,7 +15240,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="19"/>
         <v>43282</v>
@@ -15266,7 +15265,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -15284,7 +15283,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A483,1)</f>
         <v>43313</v>
@@ -15305,7 +15304,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="19"/>
         <v>43344</v>
@@ -15330,7 +15329,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13">
@@ -15348,7 +15347,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>43374</v>
@@ -15369,7 +15368,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>43405</v>
@@ -15390,7 +15389,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>43435</v>
@@ -15415,7 +15414,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13">
@@ -15433,7 +15432,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="47" t="s">
         <v>438</v>
       </c>
@@ -15451,7 +15450,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43466</v>
       </c>
@@ -15471,7 +15470,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>43497</v>
@@ -15492,7 +15491,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" ref="A495:A509" si="20">EDATE(A494,1)</f>
         <v>43525</v>
@@ -15517,7 +15516,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>119</v>
@@ -15537,7 +15536,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15559,7 +15558,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -15577,7 +15576,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A495,1)</f>
         <v>43556</v>
@@ -15598,7 +15597,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="20"/>
         <v>43586</v>
@@ -15619,7 +15618,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="20"/>
         <v>43617</v>
@@ -15640,7 +15639,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="20"/>
         <v>43647</v>
@@ -15665,7 +15664,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13">
@@ -15683,7 +15682,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>43678</v>
@@ -15704,7 +15703,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -15729,7 +15728,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -15747,7 +15746,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>43739</v>
@@ -15768,7 +15767,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -15789,7 +15788,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" si="20"/>
         <v>43800</v>
@@ -15810,7 +15809,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="47" t="s">
         <v>443</v>
       </c>
@@ -15828,7 +15827,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43831</v>
       </c>
@@ -15848,7 +15847,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>43862</v>
@@ -15871,7 +15870,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13">
@@ -15889,7 +15888,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A512,1)</f>
         <v>43891</v>
@@ -15912,7 +15911,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15930,7 +15929,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A514,1)</f>
         <v>43922</v>
@@ -15951,7 +15950,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" ref="A517:A526" si="21">EDATE(A516,1)</f>
         <v>43952</v>
@@ -15972,7 +15971,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -15993,7 +15992,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <f t="shared" si="21"/>
         <v>44013</v>
@@ -16018,7 +16017,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -16036,7 +16035,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A519,1)</f>
         <v>44044</v>
@@ -16057,7 +16056,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -16078,7 +16077,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f>EDATE(A522,1)</f>
         <v>44105</v>
@@ -16103,7 +16102,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -16121,7 +16120,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A523,1)</f>
         <v>44136</v>
@@ -16142,7 +16141,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="21"/>
         <v>44166</v>
@@ -16167,7 +16166,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="47" t="s">
         <v>450</v>
       </c>
@@ -16185,7 +16184,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44197</v>
       </c>
@@ -16205,7 +16204,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A528,1)</f>
         <v>44228</v>
@@ -16230,7 +16229,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -16248,7 +16247,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>44256</v>
@@ -16269,7 +16268,7 @@
       <c r="J531" s="12"/>
       <c r="K531" s="15"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A540" si="22">EDATE(A531,1)</f>
         <v>44287</v>
@@ -16290,7 +16289,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -16311,7 +16310,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -16332,7 +16331,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -16357,7 +16356,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13">
@@ -16375,7 +16374,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>44409</v>
@@ -16396,7 +16395,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -16417,7 +16416,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -16438,7 +16437,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="22"/>
         <v>44501</v>
@@ -16463,7 +16462,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13">
@@ -16481,7 +16480,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A540,1)</f>
         <v>44531</v>
@@ -16502,7 +16501,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="47" t="s">
         <v>454</v>
       </c>
@@ -16520,7 +16519,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44562</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A544,1)</f>
         <v>44593</v>
@@ -16567,7 +16566,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" ref="A546" si="23">EDATE(A545,1)</f>
         <v>44621</v>
@@ -16590,7 +16589,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>108</v>
@@ -16610,7 +16609,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -16628,7 +16627,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f>EDATE(A546,1)</f>
         <v>44652</v>
@@ -16651,7 +16650,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>45</v>
@@ -16675,7 +16674,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -16695,7 +16694,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44713</v>
       </c>
@@ -16715,7 +16714,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44743</v>
       </c>
@@ -16735,7 +16734,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44774</v>
       </c>
@@ -16755,7 +16754,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44805</v>
       </c>
@@ -16781,7 +16780,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44835</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44866</v>
       </c>
@@ -16827,7 +16826,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44896</v>
       </c>
@@ -16851,7 +16850,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="47" t="s">
         <v>458</v>
       </c>
@@ -16869,7 +16868,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44927</v>
       </c>
@@ -16889,7 +16888,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44958</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44986</v>
       </c>
@@ -16939,31 +16938,37 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45017</v>
       </c>
       <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
-      <c r="B564" s="20"/>
+      <c r="B564" s="20" t="s">
+        <v>462</v>
+      </c>
       <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+      <c r="D564" s="39">
+        <v>1</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
       <c r="G564" s="13" t="str">
@@ -16973,9 +16978,11 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
-    </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K564" s="48">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45078</v>
       </c>
@@ -16993,7 +17000,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45108</v>
       </c>
@@ -17011,7 +17018,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45139</v>
       </c>
@@ -17029,7 +17036,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45170</v>
       </c>
@@ -17047,7 +17054,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45200</v>
       </c>
@@ -17065,7 +17072,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45231</v>
       </c>
@@ -17083,7 +17090,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45261</v>
       </c>
@@ -17101,7 +17108,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45292</v>
       </c>
@@ -17119,7 +17126,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45323</v>
       </c>
@@ -17137,7 +17144,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45352</v>
       </c>
@@ -17155,7 +17162,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45383</v>
       </c>
@@ -17173,7 +17180,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45413</v>
       </c>
@@ -17206,10 +17213,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17232,7 +17239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17240,21 +17247,21 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -17267,7 +17274,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17296,7 +17303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17322,17 +17329,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>465</v>
       </c>
@@ -17356,10 +17363,10 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>192.68499999999995</v>
+        <v>194.18499999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -17387,7 +17394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17413,7 +17420,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17439,7 +17446,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17465,7 +17472,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17491,7 +17498,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17517,7 +17524,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17543,7 +17550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17569,7 +17576,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -17592,7 +17599,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17612,7 +17619,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17632,7 +17639,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17653,7 +17660,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17674,7 +17681,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17695,7 +17702,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17716,7 +17723,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17737,7 +17744,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17758,7 +17765,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17779,7 +17786,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17800,7 +17807,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17821,7 +17828,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17842,7 +17849,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17863,7 +17870,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17884,7 +17891,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17905,7 +17912,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17926,7 +17933,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17947,7 +17954,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17968,7 +17975,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17989,7 +17996,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18010,7 +18017,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18031,7 +18038,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18052,7 +18059,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18061,7 +18068,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18070,7 +18077,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18079,7 +18086,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18088,7 +18095,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18097,7 +18104,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18106,7 +18113,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18115,7 +18122,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18124,7 +18131,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18133,7 +18140,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18142,7 +18149,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18151,7 +18158,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18160,7 +18167,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18169,7 +18176,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18178,7 +18185,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18187,7 +18194,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18196,7 +18203,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18205,7 +18212,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18214,7 +18221,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18223,7 +18230,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18232,7 +18239,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18241,7 +18248,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18250,7 +18257,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18259,7 +18266,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18268,7 +18275,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18277,7 +18284,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18286,7 +18293,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18295,7 +18302,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18304,7 +18311,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18313,7 +18320,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
